--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_rubber_tires.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_rubber_tires.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0272</v>
+        <v>-0.153</v>
       </c>
       <c r="E2">
-        <v>-0.0649</v>
+        <v>-0.047</v>
       </c>
       <c r="G2">
-        <v>-0.1072115384615385</v>
+        <v>-0.2772277227722773</v>
       </c>
       <c r="H2">
-        <v>-0.1072115384615385</v>
+        <v>-0.2772277227722773</v>
       </c>
       <c r="I2">
-        <v>-0.1471153846153846</v>
+        <v>-0.4099009900990099</v>
       </c>
       <c r="J2">
-        <v>-0.1470598693759071</v>
+        <v>-0.4099009900990099</v>
       </c>
       <c r="K2">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="L2">
-        <v>1.274038461538461</v>
+        <v>3.217821782178218</v>
       </c>
       <c r="M2">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1004545454545454</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8339622641509434</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1004545454545454</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8339622641509434</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>0.607</v>
+        <v>2.89</v>
       </c>
       <c r="V2">
-        <v>0.02759090909090909</v>
+        <v>0.07727272727272728</v>
       </c>
       <c r="W2">
-        <v>0.09330985915492958</v>
+        <v>0.1212686567164179</v>
       </c>
       <c r="X2">
-        <v>0.09700163214079892</v>
+        <v>0.1128686424647537</v>
       </c>
       <c r="Y2">
-        <v>-0.00369177298586934</v>
+        <v>0.008400014251664173</v>
       </c>
       <c r="Z2">
-        <v>0.073376371397326</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="AA2">
-        <v>-0.01079071959296881</v>
+        <v>-0.01552655265526552</v>
       </c>
       <c r="AB2">
-        <v>0.09608840274501468</v>
+        <v>0.1123939582790026</v>
       </c>
       <c r="AC2">
-        <v>-0.1068791223379835</v>
+        <v>-0.1279205109342682</v>
       </c>
       <c r="AD2">
-        <v>0.471</v>
+        <v>0.349</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.471</v>
+        <v>0.349</v>
       </c>
       <c r="AG2">
-        <v>-0.136</v>
+        <v>-2.541</v>
       </c>
       <c r="AH2">
-        <v>0.02096034889413021</v>
+        <v>0.009245278020609819</v>
       </c>
       <c r="AI2">
-        <v>0.01727109383594294</v>
+        <v>0.01161436320676229</v>
       </c>
       <c r="AJ2">
-        <v>-0.006220270764727406</v>
+        <v>-0.07289365730514361</v>
       </c>
       <c r="AK2">
-        <v>-0.0051005100510051</v>
+        <v>-0.09356014580801945</v>
       </c>
       <c r="AL2">
-        <v>0.038</v>
+        <v>0.053</v>
       </c>
       <c r="AM2">
-        <v>-0.006999999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="AN2">
-        <v>-1.869047619047619</v>
+        <v>-0.9614325068870523</v>
       </c>
       <c r="AO2">
-        <v>-8.052631578947368</v>
+        <v>-7.811320754716981</v>
       </c>
       <c r="AP2">
-        <v>0.5396825396825398</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="AQ2">
-        <v>43.71428571428572</v>
+        <v>41.39999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0272</v>
+        <v>-0.153</v>
       </c>
       <c r="E3">
-        <v>-0.0649</v>
+        <v>-0.047</v>
       </c>
       <c r="G3">
-        <v>-0.1072115384615385</v>
+        <v>-0.2772277227722773</v>
       </c>
       <c r="H3">
-        <v>-0.1072115384615385</v>
+        <v>-0.2772277227722773</v>
       </c>
       <c r="I3">
-        <v>-0.1471153846153846</v>
+        <v>-0.4099009900990099</v>
       </c>
       <c r="J3">
-        <v>-0.1470598693759071</v>
+        <v>-0.4099009900990099</v>
       </c>
       <c r="K3">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.274038461538461</v>
+        <v>3.217821782178218</v>
       </c>
       <c r="M3">
-        <v>2.21</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1004545454545454</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.8339622641509434</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>2.21</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1004545454545454</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8339622641509434</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.607</v>
+        <v>2.89</v>
       </c>
       <c r="V3">
-        <v>0.02759090909090909</v>
+        <v>0.07727272727272728</v>
       </c>
       <c r="W3">
-        <v>0.09330985915492958</v>
+        <v>0.1212686567164179</v>
       </c>
       <c r="X3">
-        <v>0.09700163214079892</v>
+        <v>0.1128686424647537</v>
       </c>
       <c r="Y3">
-        <v>-0.00369177298586934</v>
+        <v>0.008400014251664173</v>
       </c>
       <c r="Z3">
-        <v>0.073376371397326</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="AA3">
-        <v>-0.01079071959296881</v>
+        <v>-0.01552655265526552</v>
       </c>
       <c r="AB3">
-        <v>0.09608840274501468</v>
+        <v>0.1123939582790026</v>
       </c>
       <c r="AC3">
-        <v>-0.1068791223379835</v>
+        <v>-0.1279205109342682</v>
       </c>
       <c r="AD3">
-        <v>0.471</v>
+        <v>0.349</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.471</v>
+        <v>0.349</v>
       </c>
       <c r="AG3">
-        <v>-0.136</v>
+        <v>-2.541</v>
       </c>
       <c r="AH3">
-        <v>0.02096034889413021</v>
+        <v>0.009245278020609819</v>
       </c>
       <c r="AI3">
-        <v>0.01727109383594294</v>
+        <v>0.01161436320676229</v>
       </c>
       <c r="AJ3">
-        <v>-0.006220270764727406</v>
+        <v>-0.07289365730514361</v>
       </c>
       <c r="AK3">
-        <v>-0.0051005100510051</v>
+        <v>-0.09356014580801945</v>
       </c>
       <c r="AL3">
-        <v>0.038</v>
+        <v>0.053</v>
       </c>
       <c r="AM3">
-        <v>-0.006999999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="AN3">
-        <v>-1.869047619047619</v>
+        <v>-0.9614325068870523</v>
       </c>
       <c r="AO3">
-        <v>-8.052631578947368</v>
+        <v>-7.811320754716981</v>
       </c>
       <c r="AP3">
-        <v>0.5396825396825398</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="AQ3">
-        <v>43.71428571428572</v>
+        <v>41.39999999999999</v>
       </c>
     </row>
   </sheetData>
